--- a/玉山API/玉山校園黑客松_測試資料.xlsx
+++ b/玉山API/玉山校園黑客松_測試資料.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="15" windowWidth="19200" windowHeight="11865"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
   <si>
     <t>戶名</t>
   </si>
@@ -58,35 +58,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F188556027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F243535171</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G140211146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">A132027769 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生日民國</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外幣帳戶(A01)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>藍底帳號皆可轉入紅底帳號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B223382536</t>
+  </si>
+  <si>
+    <t>C208469579</t>
+  </si>
+  <si>
+    <t>D217149778</t>
+  </si>
+  <si>
+    <t>E149519767</t>
+  </si>
+  <si>
+    <t>70/1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65/8/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>69/1/25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64/6/24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67/8/9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孫ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馮ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郭ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羅ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜ＯＯ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定轉出帳號（20組）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>約定轉入帳號（5組）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>E227898823</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>F188556027</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F243535171</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>G140211146</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">A132027769 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>測試資料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生日民國</t>
+    <t>A187257486</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -94,138 +178,48 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外幣帳戶(A01)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>藍底帳號皆可轉入紅底帳號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A187257486</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B223382536</t>
-  </si>
-  <si>
-    <t>C208469579</t>
-  </si>
-  <si>
-    <t>D217149778</t>
-  </si>
-  <si>
-    <t>E149519767</t>
-  </si>
-  <si>
-    <t>70/1/4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65/8/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>69/1/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>64/6/24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>67/8/9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>孫ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>馮ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜ＯＯ</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>康２８</t>
-  </si>
-  <si>
-    <t>王３６</t>
-  </si>
-  <si>
-    <t>孫８２</t>
-  </si>
-  <si>
-    <t>馮６７</t>
-  </si>
-  <si>
-    <t>鄧２９</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>朱１４</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胡８９</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>郭２５</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>羅２４</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜２０</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TWD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>約定轉出帳號（20組）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>約定轉入帳號（5組）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>Username</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>anijq6s7</t>
+  </si>
+  <si>
+    <t>ggckfg4g</t>
+  </si>
+  <si>
+    <t>5eh5pap3</t>
+  </si>
+  <si>
+    <t>wrkrvt3a</t>
+  </si>
+  <si>
+    <t>sivj7mq2</t>
+  </si>
+  <si>
+    <t>6pgys6pu</t>
+  </si>
+  <si>
+    <t>6gvtv3gx</t>
+  </si>
+  <si>
+    <t>vvvs7bk6</t>
+  </si>
+  <si>
+    <t>7y32v4af</t>
+  </si>
+  <si>
+    <t>bgt9rv63</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -265,7 +259,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,12 +287,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="3" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,17 +354,8 @@
     <xf numFmtId="12" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="12" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -449,7 +428,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,7 +463,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -693,409 +672,375 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="3" max="3" width="5.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="21" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.75" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>1</v>
+      </c>
       <c r="C2" s="5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2">
+      <c r="F3" s="2">
         <v>32184</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4">
+      <c r="H3" s="4">
         <v>9991968017440</v>
       </c>
-      <c r="H3" s="6">
+      <c r="I3" s="6">
         <v>9991441147182</v>
       </c>
-      <c r="I3" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J3" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J3" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>42</v>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2">
+        <v>29568</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4">
+        <v>9991968017458</v>
+      </c>
+      <c r="I4" s="6">
+        <v>9991441147150</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2">
+        <v>26982</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4">
+        <v>9991968017465</v>
+      </c>
+      <c r="I5" s="6">
+        <v>9991441147168</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="2">
-        <v>29568</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="4">
-        <v>9991968017458</v>
-      </c>
-      <c r="H4" s="6">
-        <v>9991441147150</v>
-      </c>
-      <c r="I4" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J4" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2">
-        <v>26982</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4">
-        <v>9991968017465</v>
-      </c>
-      <c r="H5" s="6">
-        <v>9991441147168</v>
-      </c>
-      <c r="I5" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J5" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
       <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2">
+        <v>30634</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="4">
+        <v>9991968017472</v>
+      </c>
+      <c r="I6" s="6">
+        <v>9991441147175</v>
+      </c>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="E6" s="2">
-        <v>30634</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="4">
-        <v>9991968017472</v>
-      </c>
-      <c r="H6" s="6">
-        <v>9991441147175</v>
-      </c>
-      <c r="I6" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J6" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>45</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="2">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2">
         <v>33304</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="4">
+      <c r="H7" s="4">
         <v>9991968101194</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="6">
         <v>9991441101199</v>
       </c>
-      <c r="I7" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J7" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>47</v>
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2">
+        <v>29590</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4">
+        <v>9915968103712</v>
+      </c>
+      <c r="I8" s="7">
+        <v>9915441101029</v>
+      </c>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2">
+        <v>27981</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="4">
+        <v>9915968103769</v>
+      </c>
+      <c r="I9" s="7">
+        <v>9915441101043</v>
+      </c>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2">
+        <v>29245</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="4">
+        <v>9915968103744</v>
+      </c>
+      <c r="I10" s="7">
+        <v>9915441101075</v>
+      </c>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2">
-        <v>29590</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="D11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2">
+        <v>27569</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="4">
-        <v>9915968103712</v>
-      </c>
-      <c r="H8" s="7">
-        <v>9915441101029</v>
-      </c>
-      <c r="I8" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J8" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H11" s="4">
+        <v>9915968103801</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9915441101118</v>
+      </c>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="B12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="2">
-        <v>27981</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="D12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2">
+        <v>28711</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G9" s="4">
-        <v>9915968103769</v>
-      </c>
-      <c r="H9" s="7">
-        <v>9915441101043</v>
-      </c>
-      <c r="I9" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J9" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="2">
-        <v>29245</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G10" s="4">
-        <v>9915968103744</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9915441101075</v>
-      </c>
-      <c r="I10" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J10" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="2">
-        <v>27569</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4">
-        <v>9915968103801</v>
-      </c>
-      <c r="H11" s="7">
-        <v>9915441101118</v>
-      </c>
-      <c r="I11" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J11" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="2">
-        <v>28711</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="4">
+      <c r="H12" s="4">
         <v>9915968103819</v>
       </c>
-      <c r="H12" s="7">
+      <c r="I12" s="7">
         <v>9915441101125</v>
       </c>
-      <c r="I12" s="14">
-        <v>1000000</v>
-      </c>
-      <c r="J12" s="14">
-        <v>200000</v>
-      </c>
-      <c r="K12" s="15"/>
+      <c r="J12" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
